--- a/mallar/Protokoll 2017 lättklass lag o ind_justerad - Copy_mixklass.xlsx
+++ b/mallar/Protokoll 2017 lättklass lag o ind_justerad - Copy_mixklass.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673FB25B-28CC-4615-B18F-BBD032EBDEBF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="15120" windowHeight="7410" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="15120" windowHeight="7410" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -53,6 +54,11 @@
     <definedName name="firstvaulter" localSheetId="1">'Lätt grund'!$H$7</definedName>
     <definedName name="firstvaulter" localSheetId="2">'Lätt lagkür 1'!$H$7</definedName>
     <definedName name="firstvaulter" localSheetId="3">'Lätt lagkür 2'!$I$7</definedName>
+    <definedName name="Hästpoäng" localSheetId="1">'Lätt grund'!$K$35</definedName>
+    <definedName name="Hästpoäng" localSheetId="4">'Lätt ind grund'!$L$30</definedName>
+    <definedName name="Hästpoäng" localSheetId="5">'Lätt ind kür'!$K$20</definedName>
+    <definedName name="Hästpoäng" localSheetId="2">'Lätt lagkür 1'!$K$21</definedName>
+    <definedName name="Hästpoäng" localSheetId="3">'Lätt lagkür 2'!$L$21</definedName>
     <definedName name="id" localSheetId="1">'Lätt grund'!$L$2</definedName>
     <definedName name="id" localSheetId="4">'Lätt ind grund'!$M$1</definedName>
     <definedName name="id" localSheetId="5">'Lätt ind kür'!$L$1</definedName>
@@ -76,7 +82,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="8">'Individuella omd'!$A$1:$G$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Lag kür och häst omd'!$A$1:$G$33</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -522,7 +535,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -2252,15 +2265,15 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Dezimal 2" xfId="5"/>
-    <cellStyle name="Dezimal 2 2" xfId="6"/>
+    <cellStyle name="Dezimal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Dezimal 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="Normal 4" xfId="8"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Tusental" xfId="1" builtinId="3"/>
-    <cellStyle name="Tusental 2" xfId="4"/>
+    <cellStyle name="Tusental 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -2701,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2845,14 +2858,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:K7"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A29" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -3516,14 +3529,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4282,14 +4295,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:L7"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5038,14 +5051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5667,14 +5680,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6407,7 +6420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC27BA0"/>
   </sheetPr>
@@ -33300,7 +33313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC27BA0"/>
   </sheetPr>
@@ -59258,7 +59271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF8E7CC3"/>
   </sheetPr>
